--- a/Crawling/crawling_data/day_genie/day_genie_20220111.xlsx
+++ b/Crawling/crawling_data/day_genie/day_genie_20220111.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="234">
   <si>
     <t>날짜</t>
   </si>
@@ -232,8 +232,7 @@
     <t>다시 사랑한다면 (김필 Ver.)</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>사이렌 Remix (Feat. UNEDUCATED KID &amp; Paul Blanco)</t>
@@ -287,8 +286,7 @@
     <t>하루만 더</t>
   </si>
   <si>
-    <t>19금
-                                    abcdefu</t>
+    <t>abcdefu</t>
   </si>
   <si>
     <t>취기를 빌려 (취향저격 그녀 X 산들)</t>
@@ -691,9 +689,6 @@
   </si>
   <si>
     <t>그 해 우리는 OST Part.7</t>
-  </si>
-  <si>
-    <t>abcdefu</t>
   </si>
   <si>
     <t>도깨비 OST Part 9 (tvN 금토드라마)</t>
@@ -2544,7 +2539,7 @@
         <v>163</v>
       </c>
       <c r="E86" t="s">
-        <v>225</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2595,7 +2590,7 @@
         <v>166</v>
       </c>
       <c r="E89" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2629,7 +2624,7 @@
         <v>153</v>
       </c>
       <c r="E91" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2646,7 +2641,7 @@
         <v>135</v>
       </c>
       <c r="E92" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2663,7 +2658,7 @@
         <v>168</v>
       </c>
       <c r="E93" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2714,7 +2709,7 @@
         <v>108</v>
       </c>
       <c r="E96" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2731,7 +2726,7 @@
         <v>142</v>
       </c>
       <c r="E97" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2748,7 +2743,7 @@
         <v>171</v>
       </c>
       <c r="E98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2765,7 +2760,7 @@
         <v>172</v>
       </c>
       <c r="E99" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2782,7 +2777,7 @@
         <v>173</v>
       </c>
       <c r="E100" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="1:5">
